--- a/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
@@ -124,13 +124,13 @@
     <t>support</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>healthy</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1490,25 +1490,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6869565217391305</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1516,13 +1516,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1542,13 +1542,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1724,25 +1724,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5319148936170213</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L33">
         <v>175</v>
       </c>
       <c r="M33">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="10:17">
